--- a/Excel_bootcamp/Final Grade Calculator/Final Grade Calculator Project.xlsx
+++ b/Excel_bootcamp/Final Grade Calculator/Final Grade Calculator Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odaik\Desktop\Excel workshop\Modules\My bootcamp\Moduels\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Excel/Excel_bootcamp/Final Grade Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EB5A32-8C0D-459B-A13D-3C3324BB790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C86A85-4C81-7C4D-81B1-EF0A663564E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Grade Calculator" sheetId="4" r:id="rId1"/>
@@ -31,6 +31,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,15 +413,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -409,27 +422,35 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,117 +733,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82060EB6-E063-4F31-B766-8449101E3A20}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" customWidth="1"/>
-    <col min="11" max="11" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="30.1640625" customWidth="1"/>
+    <col min="10" max="10" width="4.5" customWidth="1"/>
+    <col min="11" max="11" width="71.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="12">
         <v>100</v>
       </c>
       <c r="C2" s="20"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="5">
+        <f>(SUM(B2:B14)/COUNT(B2:B14))*0.5</f>
+        <v>50</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>100</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="5">
+        <f>(SUM(B16:B19)/COUNT(B16:B19))*0.5</f>
+        <v>50</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="K3" s="26"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>100</v>
       </c>
       <c r="C4" s="20"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="24" t="s">
+      <c r="E4" s="6">
+        <f>E2+E3</f>
+        <v>100</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="K4" s="26"/>
-    </row>
-    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15">
-        <v>100</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="12">
+        <v>100</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="str" cm="1">
+        <f t="array" ref="E5">_xlfn.IFS(E4&gt;=90,"A",E4&gt;=80,"B",E4&gt;=70,"C",E4&gt;=55,"D",E4&lt;55,"F")</f>
+        <v>A</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="26"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -836,9 +869,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -846,107 +879,119 @@
         <v>100</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="26"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="12">
         <v>100</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="K8" s="26"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>100</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="5" cm="1">
+        <f t="array" ref="E9">((SUM(B2:B14)-SUM(SMALL(B2:B14,{1,2}))) / (COUNT(B2:B14)-2))*0.5</f>
+        <v>50</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="K9" s="26"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>100</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="5">
+        <f>((SUM(B16:B19)-SUM(SMALL(B16:B19,1))) / (COUNT(B16:B19)-1))*0.5</f>
+        <v>50</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="K10" s="26"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>100</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="24" t="s">
+      <c r="E11" s="6">
+        <f>E9+E10</f>
+        <v>100</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="15">
-        <v>100</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="18" t="s">
+      <c r="B12" s="12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="str" cm="1">
+        <f t="array" ref="E12">_xlfn.IFS(E11&gt;=90,"A",E11&gt;=80,"B",E11&gt;=70,"C",E11&gt;=55,"D",E11&lt;55,"F")</f>
+        <v>A</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -954,9 +999,9 @@
         <v>100</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="K13" s="26"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -964,142 +1009,155 @@
         <v>100</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="K15" s="26"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="12">
         <v>100</v>
       </c>
       <c r="C16" s="20"/>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="23" t="s">
+      <c r="E16" s="5" cm="1">
+        <f t="array" ref="E16">((SUM(B2:B14)-SUM(SMALL(B2:B14,{1,2}))) / (COUNT(B2:B14)-2))*0.5</f>
+        <v>50</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="K16" s="26"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="12">
         <v>100</v>
       </c>
       <c r="C17" s="20"/>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="5">
+        <f>((SUM(B16:B19)-SUM(SMALL(B16:B19,1))) / (COUNT(B16:B19)-1))*0.5</f>
+        <v>50</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="12">
         <v>100</v>
       </c>
       <c r="C18" s="20"/>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="24" t="s">
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="K18" s="26"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="12">
         <v>100</v>
       </c>
       <c r="C19" s="20"/>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6">
+        <f>SUM(E16,E17,E18)</f>
+        <v>105</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="26"/>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="18" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="12" t="str">
+      <c r="E20" s="7" t="str" cm="1">
+        <f t="array" ref="E20">_xlfn.IFS(E19&gt;=90,"A",E19&gt;=80,"B",E19&gt;=70,"C",E19&gt;=55,"D",E19&lt;55,"F")</f>
+        <v>A</v>
+      </c>
+      <c r="F20" s="24" t="str">
         <f>IF(E19=105,"Congratulation!!","")</f>
-        <v/>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>Congratulation!!</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
       </c>
-      <c r="K21" s="26"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <v>2</v>
       </c>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -1109,11 +1167,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="C1:C5"/>
     <mergeCell ref="D1:I1"/>
@@ -1125,6 +1178,11 @@
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:A19">
     <cfRule type="colorScale" priority="3">

--- a/Excel_bootcamp/Final Grade Calculator/Final Grade Calculator Project.xlsx
+++ b/Excel_bootcamp/Final Grade Calculator/Final Grade Calculator Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Excel/Excel_bootcamp/Final Grade Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C86A85-4C81-7C4D-81B1-EF0A663564E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C946C5D-649B-6F45-A751-220427DEB1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,7 +734,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -778,7 +778,7 @@
       </c>
       <c r="E2" s="5">
         <f>(SUM(B2:B14)/COUNT(B2:B14))*0.5</f>
-        <v>50</v>
+        <v>48.92307692307692</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>31</v>
@@ -824,7 +824,7 @@
       </c>
       <c r="E4" s="6">
         <f>E2+E3</f>
-        <v>100</v>
+        <v>98.92307692307692</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>25</v>
@@ -876,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="9">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1"/>
       <c r="K7" s="18"/>
@@ -906,7 +906,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="12">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="13" t="s">
@@ -914,7 +914,7 @@
       </c>
       <c r="E9" s="5" cm="1">
         <f t="array" ref="E9">((SUM(B2:B14)-SUM(SMALL(B2:B14,{1,2}))) / (COUNT(B2:B14)-2))*0.5</f>
-        <v>50</v>
+        <v>49.863636363636367</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>31</v>
@@ -929,7 +929,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="13" t="s">
@@ -960,7 +960,7 @@
       </c>
       <c r="E11" s="6">
         <f>E9+E10</f>
-        <v>100</v>
+        <v>99.863636363636374</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>25</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="E16" s="5" cm="1">
         <f t="array" ref="E16">((SUM(B2:B14)-SUM(SMALL(B2:B14,{1,2}))) / (COUNT(B2:B14)-2))*0.5</f>
-        <v>50</v>
+        <v>49.863636363636367</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>31</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="E19" s="6">
         <f>SUM(E16,E17,E18)</f>
-        <v>105</v>
+        <v>104.86363636363637</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F20" s="24" t="str">
         <f>IF(E19=105,"Congratulation!!","")</f>
-        <v>Congratulation!!</v>
+        <v/>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
